--- a/Cyclops_ordering/downstream_output_Ast_all/AD_GWAS_diff_rhythms_CyclingBHQ1.xlsx
+++ b/Cyclops_ordering/downstream_output_Ast_all/AD_GWAS_diff_rhythms_CyclingBHQ1.xlsx
@@ -11,6 +11,7 @@
     <sheet name="GWAS_AD_cycling" sheetId="2" r:id="rId2"/>
     <sheet name="GWAS_diff_rhyth" sheetId="3" r:id="rId3"/>
     <sheet name="GWAS_diff_mesor" sheetId="4" r:id="rId4"/>
+    <sheet name="GWAS_diff_expr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -354,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,29 +442,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRKD3</t>
+          <t>PSEN2</t>
         </is>
       </c>
       <c r="B3">
-        <v>6.09129939206492</v>
+        <v>3.04875549091206</v>
       </c>
       <c r="C3">
-        <v>2.30398212168555</v>
+        <v>0.493979634450402</v>
       </c>
       <c r="D3">
-        <v>0.00661330590004227</v>
+        <v>0.0177187754214775</v>
       </c>
       <c r="E3">
-        <v>0.0582438102782707</v>
+        <v>0.103686521850853</v>
       </c>
       <c r="F3">
-        <v>-0.439393662258813</v>
+        <v>0.0457938206492824</v>
       </c>
       <c r="G3">
-        <v>2.26169556452972</v>
+        <v>-0.491852422218386</v>
       </c>
       <c r="H3">
-        <v>0.0139506292080372</v>
+        <v>0.0318638985367514</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -472,29 +473,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NCK2</t>
+          <t>PRKD3</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.9042531115193549</v>
+        <v>6.09129939206492</v>
       </c>
       <c r="C4">
-        <v>4.23279979111822</v>
+        <v>2.30398212168555</v>
       </c>
       <c r="D4">
-        <v>0.00081608301322314</v>
+        <v>0.00661330590004227</v>
       </c>
       <c r="E4">
-        <v>0.064375837911668</v>
+        <v>0.0582438102782707</v>
       </c>
       <c r="F4">
-        <v>3.32682653397265</v>
+        <v>-0.439393662258813</v>
       </c>
       <c r="G4">
-        <v>2.61702489184684</v>
+        <v>2.26169556452972</v>
       </c>
       <c r="H4">
-        <v>0.00241858497030956</v>
+        <v>0.0139506292080372</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -503,29 +504,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BIN1</t>
+          <t>NCK2</t>
         </is>
       </c>
       <c r="B5">
-        <v>1.88689740433855</v>
+        <v>0.9042531115193549</v>
       </c>
       <c r="C5">
-        <v>2.17214957694972</v>
+        <v>4.23279979111822</v>
       </c>
       <c r="D5">
-        <v>0.0126751930130468</v>
+        <v>0.00081608301322314</v>
       </c>
       <c r="E5">
-        <v>0.0655457732306497</v>
+        <v>0.064375837911668</v>
       </c>
       <c r="F5">
-        <v>2.06452971079396</v>
+        <v>3.32682653397265</v>
       </c>
       <c r="G5">
-        <v>-0.67524133307425</v>
+        <v>2.61702489184684</v>
       </c>
       <c r="H5">
-        <v>0.0240171482828161</v>
+        <v>0.00241858497030956</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -534,432 +535,432 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WDR12</t>
+          <t>BIN1</t>
         </is>
       </c>
       <c r="B6">
-        <v>4.94349087896028</v>
+        <v>1.88689740433855</v>
       </c>
       <c r="C6">
-        <v>4.92777695276211</v>
+        <v>2.17214957694972</v>
       </c>
       <c r="D6">
-        <v>5.47608465241595E-08</v>
+        <v>0.0126751930130468</v>
       </c>
       <c r="E6">
-        <v>0.130432436151834</v>
+        <v>0.0655457732306497</v>
       </c>
       <c r="F6">
-        <v>-4.79677001088456</v>
+        <v>2.06452971079396</v>
       </c>
       <c r="G6">
-        <v>1.12870862442525</v>
+        <v>-0.67524133307425</v>
       </c>
       <c r="H6">
-        <v>1.0040960595196E-06</v>
+        <v>0.0240171482828161</v>
       </c>
       <c r="I6">
-        <v>0.00074704746828258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANKH</t>
+          <t>WDR12</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.99402652053968</v>
+        <v>4.94349087896028</v>
       </c>
       <c r="C7">
-        <v>3.74022473735651</v>
+        <v>4.92777695276211</v>
       </c>
       <c r="D7">
-        <v>0.0492682785524633</v>
+        <v>5.47608465241595E-08</v>
       </c>
       <c r="E7">
-        <v>0.0370189358800303</v>
+        <v>0.130432436151834</v>
       </c>
       <c r="F7">
-        <v>3.13516299535953</v>
+        <v>-4.79677001088456</v>
       </c>
       <c r="G7">
-        <v>2.03961615959028</v>
+        <v>1.12870862442525</v>
       </c>
       <c r="H7">
-        <v>0.0756123136475086</v>
+        <v>1.0040960595196E-06</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.00074704746828258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>COX7C</t>
+          <t>ANKH</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.62193852411533</v>
+        <v>0.99402652053968</v>
       </c>
       <c r="C8">
-        <v>19.9011763985747</v>
+        <v>3.74022473735651</v>
       </c>
       <c r="D8">
-        <v>1.9053581072139E-05</v>
+        <v>0.0492682785524633</v>
       </c>
       <c r="E8">
-        <v>0.15625416529483</v>
+        <v>0.0370189358800303</v>
       </c>
       <c r="F8">
-        <v>9.88252528152557</v>
+        <v>3.13516299535953</v>
       </c>
       <c r="G8">
-        <v>-17.2740416841918</v>
+        <v>2.03961615959028</v>
       </c>
       <c r="H8">
-        <v>0.0001078096030635</v>
+        <v>0.0756123136475086</v>
       </c>
       <c r="I8">
-        <v>0.25992895298612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UMAD1</t>
+          <t>COX7C</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.639852494481787</v>
+        <v>2.62193852411533</v>
       </c>
       <c r="C9">
-        <v>12.2362609193709</v>
+        <v>19.9011763985747</v>
       </c>
       <c r="D9">
-        <v>4.11719328541801E-05</v>
+        <v>1.9053581072139E-05</v>
       </c>
       <c r="E9">
-        <v>0.0802269840098583</v>
+        <v>0.15625416529483</v>
       </c>
       <c r="F9">
-        <v>7.30599144540388</v>
+        <v>9.88252528152557</v>
       </c>
       <c r="G9">
-        <v>9.815730756627779</v>
+        <v>-17.2740416841918</v>
       </c>
       <c r="H9">
-        <v>0.00020416848709441</v>
+        <v>0.0001078096030635</v>
       </c>
       <c r="I9">
-        <v>0.561667507996725</v>
+        <v>0.25992895298612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICA1</t>
+          <t>UMAD1</t>
         </is>
       </c>
       <c r="B10">
-        <v>6.04122793818023</v>
+        <v>0.639852494481787</v>
       </c>
       <c r="C10">
-        <v>1.0491135332055</v>
+        <v>12.2362609193709</v>
       </c>
       <c r="D10">
-        <v>0.032019773681636</v>
+        <v>4.11719328541801E-05</v>
       </c>
       <c r="E10">
-        <v>0.0962701760239796</v>
+        <v>0.0802269840098583</v>
       </c>
       <c r="F10">
-        <v>-0.251371208043315</v>
+        <v>7.30599144540388</v>
       </c>
       <c r="G10">
-        <v>1.0185537400264</v>
+        <v>9.815730756627779</v>
       </c>
       <c r="H10">
-        <v>0.0525838151637027</v>
+        <v>0.00020416848709441</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.561667507996725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TMEM106B</t>
+          <t>ICA1</t>
         </is>
       </c>
       <c r="B11">
-        <v>2.40319048534398</v>
+        <v>6.04122793818023</v>
       </c>
       <c r="C11">
-        <v>10.4528566479224</v>
+        <v>1.0491135332055</v>
       </c>
       <c r="D11">
-        <v>8.343163499950091E-09</v>
+        <v>0.032019773681636</v>
       </c>
       <c r="E11">
-        <v>0.121462369101337</v>
+        <v>0.0962701760239796</v>
       </c>
       <c r="F11">
-        <v>7.03589205496637</v>
+        <v>-0.251371208043315</v>
       </c>
       <c r="G11">
-        <v>-7.73035801841529</v>
+        <v>1.0185537400264</v>
       </c>
       <c r="H11">
-        <v>2.24935645190354E-07</v>
+        <v>0.0525838151637027</v>
       </c>
       <c r="I11">
-        <v>0.00011381743646631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JAZF1</t>
+          <t>TMEM106B</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.561757517520165</v>
+        <v>2.40319048534398</v>
       </c>
       <c r="C12">
-        <v>9.491452918468701</v>
+        <v>10.4528566479224</v>
       </c>
       <c r="D12">
-        <v>1.11017716680694E-05</v>
+        <v>8.343163499950091E-09</v>
       </c>
       <c r="E12">
-        <v>0.089105078459095</v>
+        <v>0.121462369101337</v>
       </c>
       <c r="F12">
-        <v>5.05585439161526</v>
+        <v>7.03589205496637</v>
       </c>
       <c r="G12">
-        <v>8.03280865415657</v>
+        <v>-7.73035801841529</v>
       </c>
       <c r="H12">
-        <v>6.97606490538014E-05</v>
+        <v>2.24935645190354E-07</v>
       </c>
       <c r="I12">
-        <v>0.151450369095803</v>
+        <v>0.00011381743646631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EPDR1</t>
+          <t>JAZF1</t>
         </is>
       </c>
       <c r="B13">
-        <v>1.98233557307121</v>
+        <v>0.561757517520165</v>
       </c>
       <c r="C13">
-        <v>2.73028874724672</v>
+        <v>9.491452918468701</v>
       </c>
       <c r="D13">
-        <v>0.00018553290149126</v>
+        <v>1.11017716680694E-05</v>
       </c>
       <c r="E13">
-        <v>0.0913489702586267</v>
+        <v>0.089105078459095</v>
       </c>
       <c r="F13">
-        <v>2.50232650642581</v>
+        <v>5.05585439161526</v>
       </c>
       <c r="G13">
-        <v>-1.092171551809</v>
+        <v>8.03280865415657</v>
       </c>
       <c r="H13">
-        <v>0.0007032619733658699</v>
+        <v>6.97606490538014E-05</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.151450369095803</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SEC61G</t>
+          <t>EPDR1</t>
         </is>
       </c>
       <c r="B14">
-        <v>2.73865697375551</v>
+        <v>1.98233557307121</v>
       </c>
       <c r="C14">
-        <v>3.90788327137601</v>
+        <v>2.73028874724672</v>
       </c>
       <c r="D14">
-        <v>3.28496244228233E-06</v>
+        <v>0.00018553290149126</v>
       </c>
       <c r="E14">
-        <v>0.161066355809055</v>
+        <v>0.0913489702586267</v>
       </c>
       <c r="F14">
-        <v>1.53236153531584</v>
+        <v>2.50232650642581</v>
       </c>
       <c r="G14">
-        <v>-3.5949158248539</v>
+        <v>-1.092171551809</v>
       </c>
       <c r="H14">
-        <v>2.62989774868636E-05</v>
+        <v>0.0007032619733658699</v>
       </c>
       <c r="I14">
-        <v>0.0448134576376155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SPDYE3</t>
+          <t>SEC61G</t>
         </is>
       </c>
       <c r="B15">
-        <v>5.11464538930697</v>
+        <v>2.73865697375551</v>
       </c>
       <c r="C15">
-        <v>6.65485252252764</v>
+        <v>3.90788327137601</v>
       </c>
       <c r="D15">
-        <v>7.86232581443033E-08</v>
+        <v>3.28496244228233E-06</v>
       </c>
       <c r="E15">
-        <v>0.222863125595106</v>
+        <v>0.161066355809055</v>
       </c>
       <c r="F15">
-        <v>-6.12366194789065</v>
+        <v>1.53236153531584</v>
       </c>
       <c r="G15">
-        <v>2.60534574376388</v>
+        <v>-3.5949158248539</v>
       </c>
       <c r="H15">
-        <v>1.33074254045234E-06</v>
+        <v>2.62989774868636E-05</v>
       </c>
       <c r="I15">
-        <v>0.00107257848760459</v>
+        <v>0.0448134576376155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CTSB</t>
+          <t>SPDYE3</t>
         </is>
       </c>
       <c r="B16">
-        <v>2.64419986977612</v>
+        <v>5.11464538930697</v>
       </c>
       <c r="C16">
-        <v>6.95304708062732</v>
+        <v>6.65485252252764</v>
       </c>
       <c r="D16">
-        <v>1.39018045179448E-07</v>
+        <v>7.86232581443033E-08</v>
       </c>
       <c r="E16">
-        <v>0.108055628630457</v>
+        <v>0.222863125595106</v>
       </c>
       <c r="F16">
-        <v>3.31754812813413</v>
+        <v>-6.12366194789065</v>
       </c>
       <c r="G16">
-        <v>-6.1105431937704</v>
+        <v>2.60534574376388</v>
       </c>
       <c r="H16">
-        <v>2.0863412236942E-06</v>
+        <v>1.33074254045234E-06</v>
       </c>
       <c r="I16">
-        <v>0.00189648417233803</v>
+        <v>0.00107257848760459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>CTSB</t>
         </is>
       </c>
       <c r="B17">
-        <v>2.34569149929807</v>
+        <v>2.64419986977612</v>
       </c>
       <c r="C17">
-        <v>432.649059624985</v>
+        <v>6.95304708062732</v>
       </c>
       <c r="D17">
-        <v>2.58870165114198E-08</v>
+        <v>1.39018045179448E-07</v>
       </c>
       <c r="E17">
-        <v>0.204516877113537</v>
+        <v>0.108055628630457</v>
       </c>
       <c r="F17">
-        <v>309.125321447832</v>
+        <v>3.31754812813413</v>
       </c>
       <c r="G17">
-        <v>-302.69909883275</v>
+        <v>-6.1105431937704</v>
       </c>
       <c r="H17">
-        <v>5.6685502287125E-07</v>
+        <v>2.0863412236942E-06</v>
       </c>
       <c r="I17">
-        <v>0.00035315067924878</v>
+        <v>0.00189648417233803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SHARPIN</t>
+          <t>CLU</t>
         </is>
       </c>
       <c r="B18">
-        <v>3.26225611867945</v>
+        <v>2.34569149929807</v>
       </c>
       <c r="C18">
-        <v>0.987846477682891</v>
+        <v>432.649059624985</v>
       </c>
       <c r="D18">
-        <v>0.0347414931502091</v>
+        <v>2.58870165114198E-08</v>
       </c>
       <c r="E18">
-        <v>0.0499929796326468</v>
+        <v>0.204516877113537</v>
       </c>
       <c r="F18">
-        <v>-0.118907944650616</v>
+        <v>309.125321447832</v>
       </c>
       <c r="G18">
-        <v>-0.980663838514229</v>
+        <v>-302.69909883275</v>
       </c>
       <c r="H18">
-        <v>0.0563889755761806</v>
+        <v>5.6685502287125E-07</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.00035315067924878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>USP6NL</t>
+          <t>SHARPIN</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.711021448659336</v>
+        <v>3.26225611867945</v>
       </c>
       <c r="C19">
-        <v>4.44906034042049</v>
+        <v>0.987846477682891</v>
       </c>
       <c r="D19">
-        <v>0.00036663167158045</v>
+        <v>0.0347414931502091</v>
       </c>
       <c r="E19">
-        <v>0.09147611979431371</v>
+        <v>0.0499929796326468</v>
       </c>
       <c r="F19">
-        <v>2.9034926311808</v>
+        <v>-0.118907944650616</v>
       </c>
       <c r="G19">
-        <v>3.37103373661275</v>
+        <v>-0.980663838514229</v>
       </c>
       <c r="H19">
-        <v>0.00123709850697516</v>
+        <v>0.0563889755761806</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -968,29 +969,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ANK3</t>
+          <t>USP6NL</t>
         </is>
       </c>
       <c r="B20">
-        <v>5.86522989320514</v>
+        <v>0.711021448659336</v>
       </c>
       <c r="C20">
-        <v>4.99516360883169</v>
+        <v>4.44906034042049</v>
       </c>
       <c r="D20">
-        <v>0.0352110434472348</v>
+        <v>0.00036663167158045</v>
       </c>
       <c r="E20">
-        <v>0.0734658938473078</v>
+        <v>0.09147611979431371</v>
       </c>
       <c r="F20">
-        <v>-2.02750050999705</v>
+        <v>2.9034926311808</v>
       </c>
       <c r="G20">
-        <v>4.56518358458432</v>
+        <v>3.37103373661275</v>
       </c>
       <c r="H20">
-        <v>0.0569809080316936</v>
+        <v>0.00123709850697516</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -999,29 +1000,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TSPAN14</t>
+          <t>ANK3</t>
         </is>
       </c>
       <c r="B21">
-        <v>1.1175951172413</v>
+        <v>5.86522989320514</v>
       </c>
       <c r="C21">
-        <v>2.89232119762579</v>
+        <v>4.99516360883169</v>
       </c>
       <c r="D21">
-        <v>0.00080527289386923</v>
+        <v>0.0352110434472348</v>
       </c>
       <c r="E21">
-        <v>0.09153732248446909</v>
+        <v>0.0734658938473078</v>
       </c>
       <c r="F21">
-        <v>2.60034159004422</v>
+        <v>-2.02750050999705</v>
       </c>
       <c r="G21">
-        <v>1.26639074748744</v>
+        <v>4.56518358458432</v>
       </c>
       <c r="H21">
-        <v>0.00238971781991822</v>
+        <v>0.0569809080316936</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1030,215 +1031,215 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PLEKHA1</t>
+          <t>TSPAN14</t>
         </is>
       </c>
       <c r="B22">
-        <v>1.07642581084217</v>
+        <v>1.1175951172413</v>
       </c>
       <c r="C22">
-        <v>5.38825057223814</v>
+        <v>2.89232119762579</v>
       </c>
       <c r="D22">
-        <v>5.298390907882229E-11</v>
+        <v>0.00080527289386923</v>
       </c>
       <c r="E22">
-        <v>0.09806657208918371</v>
+        <v>0.09153732248446909</v>
       </c>
       <c r="F22">
-        <v>4.7431021856116</v>
+        <v>2.60034159004422</v>
       </c>
       <c r="G22">
-        <v>2.55660436635611</v>
+        <v>1.26639074748744</v>
       </c>
       <c r="H22">
-        <v>4.574724605400591E-09</v>
+        <v>0.00238971781991822</v>
       </c>
       <c r="I22">
-        <v>7.22806487653294E-07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SPI1</t>
+          <t>PLEKHA1</t>
         </is>
       </c>
       <c r="B23">
-        <v>4.94067461983488</v>
+        <v>1.07642581084217</v>
       </c>
       <c r="C23">
-        <v>5.26214161202766</v>
+        <v>5.38825057223814</v>
       </c>
       <c r="D23">
-        <v>8.48731503844873E-12</v>
+        <v>5.298390907882229E-11</v>
       </c>
       <c r="E23">
-        <v>0.298219596260884</v>
+        <v>0.09806657208918371</v>
       </c>
       <c r="F23">
-        <v>-5.12561955587238</v>
+        <v>4.7431021856116</v>
       </c>
       <c r="G23">
-        <v>1.19086460754015</v>
+        <v>2.55660436635611</v>
       </c>
       <c r="H23">
-        <v>1.0821997754055E-09</v>
+        <v>4.574724605400591E-09</v>
       </c>
       <c r="I23">
-        <v>1.15783951754518E-07</v>
+        <v>7.22806487653294E-07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SORL1</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B24">
-        <v>4.03635092863932</v>
+        <v>4.94067461983488</v>
       </c>
       <c r="C24">
-        <v>8.3612485156945</v>
+        <v>5.26214161202766</v>
       </c>
       <c r="D24">
-        <v>0.0449290556643988</v>
+        <v>8.48731503844873E-12</v>
       </c>
       <c r="E24">
-        <v>0.0323679512084671</v>
+        <v>0.298219596260884</v>
       </c>
       <c r="F24">
-        <v>-6.52225758121047</v>
+        <v>-5.12561955587238</v>
       </c>
       <c r="G24">
-        <v>-5.23169502031092</v>
+        <v>1.19086460754015</v>
       </c>
       <c r="H24">
-        <v>0.0700082441317794</v>
+        <v>1.0821997754055E-09</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>1.15783951754518E-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TPCN1</t>
+          <t>SORL1</t>
         </is>
       </c>
       <c r="B25">
-        <v>4.80899263980469</v>
+        <v>4.03635092863932</v>
       </c>
       <c r="C25">
-        <v>33.0161531255412</v>
+        <v>8.3612485156945</v>
       </c>
       <c r="D25">
-        <v>1.87288330536719E-07</v>
+        <v>0.0449290556643988</v>
       </c>
       <c r="E25">
-        <v>0.162459312653547</v>
+        <v>0.0323679512084671</v>
       </c>
       <c r="F25">
-        <v>-32.8622151189443</v>
+        <v>-6.52225758121047</v>
       </c>
       <c r="G25">
-        <v>3.18452267779832</v>
+        <v>-5.23169502031092</v>
       </c>
       <c r="H25">
-        <v>2.66612730943874E-06</v>
+        <v>0.0700082441317794</v>
       </c>
       <c r="I25">
-        <v>0.00255498740518192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SLC24A4</t>
+          <t>TPCN1</t>
         </is>
       </c>
       <c r="B26">
-        <v>5.97093070045445</v>
+        <v>4.80899263980469</v>
       </c>
       <c r="C26">
-        <v>6.21250181155956</v>
+        <v>33.0161531255412</v>
       </c>
       <c r="D26">
-        <v>0.0101446826019855</v>
+        <v>1.87288330536719E-07</v>
       </c>
       <c r="E26">
-        <v>0.137523479614228</v>
+        <v>0.162459312653547</v>
       </c>
       <c r="F26">
-        <v>-1.90851160007858</v>
+        <v>-32.8622151189443</v>
       </c>
       <c r="G26">
-        <v>5.91208611498482</v>
+        <v>3.18452267779832</v>
       </c>
       <c r="H26">
-        <v>0.0199127712311203</v>
+        <v>2.66612730943874E-06</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0.00255498740518192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SPPL2A</t>
+          <t>PSEN1</t>
         </is>
       </c>
       <c r="B27">
-        <v>1.98353430349162</v>
+        <v>6.05013796280571</v>
       </c>
       <c r="C27">
-        <v>10.2103773109235</v>
+        <v>5.76328775728385</v>
       </c>
       <c r="D27">
-        <v>0.00022735255373937</v>
+        <v>4.60823232752363E-06</v>
       </c>
       <c r="E27">
-        <v>0.123484842670891</v>
+        <v>0.0851947576066579</v>
       </c>
       <c r="F27">
-        <v>9.35297112261358</v>
+        <v>-1.3309941759491</v>
       </c>
       <c r="G27">
-        <v>-4.09557517462174</v>
+        <v>5.60748965909412</v>
       </c>
       <c r="H27">
-        <v>0.00083240567313808</v>
+        <v>3.47131448989936E-05</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0.0628655054120774</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MINDY2</t>
+          <t>SLC24A4</t>
         </is>
       </c>
       <c r="B28">
-        <v>1.37213294910274</v>
+        <v>5.97093070045445</v>
       </c>
       <c r="C28">
-        <v>3.23908618271914</v>
+        <v>6.21250181155956</v>
       </c>
       <c r="D28">
-        <v>0.00952677299111335</v>
+        <v>0.0101446826019855</v>
       </c>
       <c r="E28">
-        <v>0.0483606930558271</v>
+        <v>0.137523479614228</v>
       </c>
       <c r="F28">
-        <v>3.1753774003648</v>
+        <v>-1.90851160007858</v>
       </c>
       <c r="G28">
-        <v>0.639263376343828</v>
+        <v>5.91208611498482</v>
       </c>
       <c r="H28">
-        <v>0.0188764324102786</v>
+        <v>0.0199127712311203</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1247,29 +1248,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SNX1</t>
+          <t>SPPL2A</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.434386483319474</v>
+        <v>1.98353430349162</v>
       </c>
       <c r="C29">
-        <v>3.06524205634423</v>
+        <v>10.2103773109235</v>
       </c>
       <c r="D29">
-        <v>0.0002067400201209</v>
+        <v>0.00022735255373937</v>
       </c>
       <c r="E29">
-        <v>0.0541947250926278</v>
+        <v>0.123484842670891</v>
       </c>
       <c r="F29">
-        <v>1.29001920318985</v>
+        <v>9.35297112261358</v>
       </c>
       <c r="G29">
-        <v>2.78056816485099</v>
+        <v>-4.09557517462174</v>
       </c>
       <c r="H29">
-        <v>0.00076639873763297</v>
+        <v>0.00083240567313808</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1278,29 +1279,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>MINDY2</t>
         </is>
       </c>
       <c r="B30">
-        <v>3.65953492432867</v>
+        <v>1.37213294910274</v>
       </c>
       <c r="C30">
-        <v>8.56610728638654</v>
+        <v>3.23908618271914</v>
       </c>
       <c r="D30">
-        <v>0.0035627828334506</v>
+        <v>0.00952677299111335</v>
       </c>
       <c r="E30">
-        <v>0.118639333406913</v>
+        <v>0.0483606930558271</v>
       </c>
       <c r="F30">
-        <v>-4.24102275482649</v>
+        <v>3.1753774003648</v>
       </c>
       <c r="G30">
-        <v>-7.44257482561839</v>
+        <v>0.639263376343828</v>
       </c>
       <c r="H30">
-        <v>0.00826308796564656</v>
+        <v>0.0188764324102786</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1309,29 +1310,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DOC2A</t>
+          <t>SNX1</t>
         </is>
       </c>
       <c r="B31">
-        <v>2.28908062527101</v>
+        <v>0.434386483319474</v>
       </c>
       <c r="C31">
-        <v>2.65963183567108</v>
+        <v>3.06524205634423</v>
       </c>
       <c r="D31">
-        <v>0.00272355723088367</v>
+        <v>0.0002067400201209</v>
       </c>
       <c r="E31">
-        <v>0.101504701906281</v>
+        <v>0.0541947250926278</v>
       </c>
       <c r="F31">
-        <v>2.00253236792803</v>
+        <v>1.29001920318985</v>
       </c>
       <c r="G31">
-        <v>-1.75028729547914</v>
+        <v>2.78056816485099</v>
       </c>
       <c r="H31">
-        <v>0.00658772477725444</v>
+        <v>0.00076639873763297</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1340,29 +1341,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCKDK</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B32">
-        <v>2.54158085794574</v>
+        <v>3.65953492432867</v>
       </c>
       <c r="C32">
-        <v>0.876668928579082</v>
+        <v>8.56610728638654</v>
       </c>
       <c r="D32">
-        <v>0.00320809055662512</v>
+        <v>0.0035627828334506</v>
       </c>
       <c r="E32">
-        <v>0.09106105491444751</v>
+        <v>0.118639333406913</v>
       </c>
       <c r="F32">
-        <v>0.495013046839157</v>
+        <v>-4.24102275482649</v>
       </c>
       <c r="G32">
-        <v>-0.723540250293659</v>
+        <v>-7.44257482561839</v>
       </c>
       <c r="H32">
-        <v>0.00755476806032796</v>
+        <v>0.00826308796564656</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1371,29 +1372,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IL34</t>
+          <t>DOC2A</t>
         </is>
       </c>
       <c r="B33">
-        <v>4.00014679559324</v>
+        <v>2.28908062527101</v>
       </c>
       <c r="C33">
-        <v>0.438483606907387</v>
+        <v>2.65963183567108</v>
       </c>
       <c r="D33">
-        <v>0.021005999656013</v>
+        <v>0.00272355723088367</v>
       </c>
       <c r="E33">
-        <v>0.107170790024517</v>
+        <v>0.101504701906281</v>
       </c>
       <c r="F33">
-        <v>-0.331887557663926</v>
+        <v>2.00253236792803</v>
       </c>
       <c r="G33">
-        <v>-0.286563295965108</v>
+        <v>-1.75028729547914</v>
       </c>
       <c r="H33">
-        <v>0.0367766744490926</v>
+        <v>0.00658772477725444</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1402,60 +1403,60 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>BCKDK</t>
         </is>
       </c>
       <c r="B34">
-        <v>1.67196028634271</v>
+        <v>2.54158085794574</v>
       </c>
       <c r="C34">
-        <v>7.5431722866713</v>
+        <v>0.876668928579082</v>
       </c>
       <c r="D34">
-        <v>3.02487882668337E-05</v>
+        <v>0.00320809055662512</v>
       </c>
       <c r="E34">
-        <v>0.173627612378435</v>
+        <v>0.09106105491444751</v>
       </c>
       <c r="F34">
-        <v>7.50460622847457</v>
+        <v>0.495013046839157</v>
       </c>
       <c r="G34">
-        <v>-0.7617962338753</v>
+        <v>-0.723540250293659</v>
       </c>
       <c r="H34">
-        <v>0.00015859107207384</v>
+        <v>0.00755476806032796</v>
       </c>
       <c r="I34">
-        <v>0.412653969536145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WDR81</t>
+          <t>IL34</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.304763792382265</v>
+        <v>4.00014679559324</v>
       </c>
       <c r="C35">
-        <v>0.92605699142313</v>
+        <v>0.438483606907387</v>
       </c>
       <c r="D35">
-        <v>0.009506430596487019</v>
+        <v>0.021005999656013</v>
       </c>
       <c r="E35">
-        <v>0.0849470423467915</v>
+        <v>0.107170790024517</v>
       </c>
       <c r="F35">
-        <v>0.27787994050424</v>
+        <v>-0.331887557663926</v>
       </c>
       <c r="G35">
-        <v>0.883382301174876</v>
+        <v>-0.286563295965108</v>
       </c>
       <c r="H35">
-        <v>0.0188470754537532</v>
+        <v>0.0367766744490926</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1464,153 +1465,153 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SCIMP</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B36">
-        <v>5.1770816538669</v>
+        <v>1.67196028634271</v>
       </c>
       <c r="C36">
-        <v>2.15380160124559</v>
+        <v>7.5431722866713</v>
       </c>
       <c r="D36">
-        <v>8.849029120505809E-06</v>
+        <v>3.02487882668337E-05</v>
       </c>
       <c r="E36">
-        <v>0.249466626531294</v>
+        <v>0.173627612378435</v>
       </c>
       <c r="F36">
-        <v>-1.92541104848973</v>
+        <v>7.50460622847457</v>
       </c>
       <c r="G36">
-        <v>0.965222063507529</v>
+        <v>-0.7617962338753</v>
       </c>
       <c r="H36">
-        <v>5.81775688009351E-05</v>
+        <v>0.00015859107207384</v>
       </c>
       <c r="I36">
-        <v>0.12071845526194</v>
+        <v>0.412653969536145</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>WDR81</t>
         </is>
       </c>
       <c r="B37">
-        <v>2.74876037308556</v>
+        <v>0.304763792382265</v>
       </c>
       <c r="C37">
-        <v>3.83875183798961</v>
+        <v>0.92605699142313</v>
       </c>
       <c r="D37">
-        <v>4.65197627453466E-10</v>
+        <v>0.009506430596487019</v>
       </c>
       <c r="E37">
-        <v>0.166227420828445</v>
+        <v>0.0849470423467915</v>
       </c>
       <c r="F37">
-        <v>1.46949911178485</v>
+        <v>0.27787994050424</v>
       </c>
       <c r="G37">
-        <v>-3.54634854944239</v>
+        <v>0.883382301174876</v>
       </c>
       <c r="H37">
-        <v>2.57976668037406E-08</v>
+        <v>0.0188470754537532</v>
       </c>
       <c r="I37">
-        <v>6.34622603372018E-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>SCIMP</t>
         </is>
       </c>
       <c r="B38">
-        <v>4.68800023471247</v>
+        <v>5.1770816538669</v>
       </c>
       <c r="C38">
-        <v>7.40620292336598</v>
+        <v>2.15380160124559</v>
       </c>
       <c r="D38">
-        <v>0.00028583874348019</v>
+        <v>8.849029120505809E-06</v>
       </c>
       <c r="E38">
-        <v>0.0907061682910088</v>
+        <v>0.249466626531294</v>
       </c>
       <c r="F38">
-        <v>-7.40400038737312</v>
+        <v>-1.92541104848973</v>
       </c>
       <c r="G38">
-        <v>-0.180610093443101</v>
+        <v>0.965222063507529</v>
       </c>
       <c r="H38">
-        <v>0.00100526221669422</v>
+        <v>5.81775688009351E-05</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.12071845526194</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ABCA7</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B39">
-        <v>1.16074879014146</v>
+        <v>2.74876037308556</v>
       </c>
       <c r="C39">
-        <v>2.35443236990638</v>
+        <v>3.83875183798961</v>
       </c>
       <c r="D39">
-        <v>0.00029272994692861</v>
+        <v>4.65197627453466E-10</v>
       </c>
       <c r="E39">
-        <v>0.217523955466482</v>
+        <v>0.166227420828445</v>
       </c>
       <c r="F39">
-        <v>2.1592543368272</v>
+        <v>1.46949911178485</v>
       </c>
       <c r="G39">
-        <v>0.938601349538708</v>
+        <v>-3.54634854944239</v>
       </c>
       <c r="H39">
-        <v>0.00102474260610731</v>
+        <v>2.57976668037406E-08</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>6.34622603372018E-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KLF16</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="B40">
-        <v>2.62701059756589</v>
+        <v>4.68800023471247</v>
       </c>
       <c r="C40">
-        <v>1.20004529295712</v>
+        <v>7.40620292336598</v>
       </c>
       <c r="D40">
-        <v>9.84086826597656E-05</v>
+        <v>0.00028583874348019</v>
       </c>
       <c r="E40">
-        <v>0.12620895924943</v>
+        <v>0.0907061682910088</v>
       </c>
       <c r="F40">
-        <v>0.59062757879769</v>
+        <v>-7.40400038737312</v>
       </c>
       <c r="G40">
-        <v>-1.04463762535729</v>
+        <v>-0.180610093443101</v>
       </c>
       <c r="H40">
-        <v>0.00041783107651556</v>
+        <v>0.00100526221669422</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1619,29 +1620,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SLC2A4RG</t>
+          <t>ABCA7</t>
         </is>
       </c>
       <c r="B41">
-        <v>3.84369206356348</v>
+        <v>1.16074879014146</v>
       </c>
       <c r="C41">
-        <v>2.09730581514781</v>
+        <v>2.35443236990638</v>
       </c>
       <c r="D41">
-        <v>0.0440567114902873</v>
+        <v>0.00029272994692861</v>
       </c>
       <c r="E41">
-        <v>0.08221120362424369</v>
+        <v>0.217523955466482</v>
       </c>
       <c r="F41">
-        <v>-1.35448620190781</v>
+        <v>2.1592543368272</v>
       </c>
       <c r="G41">
-        <v>-1.60126787612011</v>
+        <v>0.938601349538708</v>
       </c>
       <c r="H41">
-        <v>0.06878251981580449</v>
+        <v>0.00102474260610731</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1650,31 +1651,124 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>KLF16</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>2.62701059756589</v>
+      </c>
+      <c r="C42">
+        <v>1.20004529295712</v>
+      </c>
+      <c r="D42">
+        <v>9.84086826597656E-05</v>
+      </c>
+      <c r="E42">
+        <v>0.12620895924943</v>
+      </c>
+      <c r="F42">
+        <v>0.59062757879769</v>
+      </c>
+      <c r="G42">
+        <v>-1.04463762535729</v>
+      </c>
+      <c r="H42">
+        <v>0.00041783107651556</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>APOE</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>3.01430704750953</v>
+      </c>
+      <c r="C43">
+        <v>103.444399957748</v>
+      </c>
+      <c r="D43">
+        <v>1.9364198406366E-09</v>
+      </c>
+      <c r="E43">
+        <v>0.249197765022745</v>
+      </c>
+      <c r="F43">
+        <v>13.1314575134168</v>
+      </c>
+      <c r="G43">
+        <v>-102.607547023559</v>
+      </c>
+      <c r="H43">
+        <v>7.40248939624948E-08</v>
+      </c>
+      <c r="I43">
+        <v>2.64166394659645E-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SLC2A4RG</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>3.84369206356348</v>
+      </c>
+      <c r="C44">
+        <v>2.09730581514781</v>
+      </c>
+      <c r="D44">
+        <v>0.0440567114902873</v>
+      </c>
+      <c r="E44">
+        <v>0.08221120362424369</v>
+      </c>
+      <c r="F44">
+        <v>-1.35448620190781</v>
+      </c>
+      <c r="G44">
+        <v>-1.60126787612011</v>
+      </c>
+      <c r="H44">
+        <v>0.06878251981580449</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>ADAMTS1</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="B45">
         <v>1.88775342889229</v>
       </c>
-      <c r="C42">
+      <c r="C45">
         <v>1.92314067282773</v>
       </c>
-      <c r="D42">
+      <c r="D45">
         <v>0.00228639353579287</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>0.371014843852857</v>
       </c>
-      <c r="F42">
+      <c r="F45">
         <v>1.82734560492122</v>
       </c>
-      <c r="G42">
+      <c r="G45">
         <v>-0.599398104484321</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>0.00570323287900646</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>1</v>
       </c>
     </row>
@@ -1685,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,31 +2734,62 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>APOE</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2.74535842620031</v>
+      </c>
+      <c r="C31">
+        <v>77.5287151853056</v>
+      </c>
+      <c r="D31">
+        <v>0.00107546070050526</v>
+      </c>
+      <c r="E31">
+        <v>0.207115141606808</v>
+      </c>
+      <c r="F31">
+        <v>29.9219814796793</v>
+      </c>
+      <c r="G31">
+        <v>-71.5218617110458</v>
+      </c>
+      <c r="H31">
+        <v>0.00597371126884884</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>RBCK1</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>2.04458276847152</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2.12945223645493</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>0.0479286163642516</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>0.0610742169444418</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>1.8948868408205</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>-0.971581539464488</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>0.09897701853483511</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
@@ -2675,7 +2800,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,1695 +2839,265 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Log_AD_CTL_ampRatio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>BHQ</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Bonf</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Log_AD_CTL_ampRatio</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SORT1</t>
+          <t>INPP5D</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.225260672667488</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.06285787256984</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.10667122686689</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10.9538453324582</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18.7820663105658</t>
-        </is>
+        <v>0.0114192984931405</v>
+      </c>
+      <c r="C2">
+        <v>1.82543495455372</v>
+      </c>
+      <c r="D2">
+        <v>0.331417839294663</v>
+      </c>
+      <c r="E2">
+        <v>2.37396949553487</v>
+      </c>
+      <c r="F2">
+        <v>0.759492901863872</v>
       </c>
       <c r="G2">
-        <v>0.7711773627484136</v>
+        <v>1.13966774950067</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>-0.5392119283841711</v>
+        <v>0.1027736864382645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRKD3</t>
+          <t>SPDYE3</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.312568222228422</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.27168482160833</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.11187488961536</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.85990729164035</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.15979596509491</t>
-        </is>
+        <v>0.814280470358994</v>
+      </c>
+      <c r="C3">
+        <v>5.18472951791314</v>
+      </c>
+      <c r="D3">
+        <v>5.09139869460878</v>
+      </c>
+      <c r="E3">
+        <v>7.45246320614755</v>
+      </c>
+      <c r="F3">
+        <v>6.47460125074036</v>
       </c>
       <c r="G3">
-        <v>0.8779129898719175</v>
+        <v>0.140657586650456</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>-0.1494871133513983</v>
+        <v>0.814280470358994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NCK2</t>
+          <t>CLU</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.44195156497136</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.261629100822336</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.875251111004144</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.21196716007951</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.23511424194302</t>
-        </is>
+        <v>0.184155009964214</v>
+      </c>
+      <c r="C4">
+        <v>1.93253397524928</v>
+      </c>
+      <c r="D4">
+        <v>2.35176721059826</v>
+      </c>
+      <c r="E4">
+        <v>435.958622464764</v>
+      </c>
+      <c r="F4">
+        <v>440.693019445733</v>
       </c>
       <c r="G4">
-        <v>0.8779129898719175</v>
+        <v>-0.0108011957842029</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>-0.005480505916511825</v>
+        <v>0.4729540234507335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BIN1</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.958863897732269</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.87774439243377</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.87731321613255</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.51464611905952</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.18079598313102</t>
-        </is>
+        <v>0.612497434794361</v>
+      </c>
+      <c r="C5">
+        <v>5.13051577182117</v>
+      </c>
+      <c r="D5">
+        <v>4.93443433006664</v>
+      </c>
+      <c r="E5">
+        <v>5.33271226161308</v>
+      </c>
+      <c r="F5">
+        <v>5.22562173278382</v>
       </c>
       <c r="G5">
-        <v>0.958863897732269</v>
+        <v>0.02028619315094</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0.1424421454900369</v>
+        <v>0.814280470358994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WDR12</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.07052916392601789</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4.79424989493934</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.9162329055247</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7.84801068704395</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.7764396976024</t>
-        </is>
+        <v>0.759490868522574</v>
+      </c>
+      <c r="C6">
+        <v>1.77764626200665</v>
+      </c>
+      <c r="D6">
+        <v>1.69244852072221</v>
+      </c>
+      <c r="E6">
+        <v>9.482947021773599</v>
+      </c>
+      <c r="F6">
+        <v>7.54900157831235</v>
       </c>
       <c r="G6">
-        <v>0.7711773627484136</v>
+        <v>0.228079822000255</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.4965646481761767</v>
+        <v>0.814280470358994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INPP5D</t>
+          <t>SCIMP</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.0114192984931405</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.82543495455372</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.331417839294663</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.37396949553487</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.759492901863872</t>
-        </is>
+        <v>0.741188987527878</v>
+      </c>
+      <c r="C7">
+        <v>5.01873570719445</v>
+      </c>
+      <c r="D7">
+        <v>5.133846745988</v>
+      </c>
+      <c r="E7">
+        <v>2.51481839885891</v>
+      </c>
+      <c r="F7">
+        <v>2.05898447906625</v>
       </c>
       <c r="G7">
-        <v>0.4910298352050415</v>
+        <v>0.199987703807366</v>
       </c>
       <c r="H7">
-        <v>0.4910298352050415</v>
-      </c>
-      <c r="I7">
-        <v>1.139667749500668</v>
+        <v>0.814280470358994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANKH</t>
+          <t>ABCA7</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.8359030037051139</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.25397401757139</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01814280747008</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.4589868466174</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74488626183918</t>
-        </is>
+        <v>0.405958947494884</v>
+      </c>
+      <c r="C8">
+        <v>1.52965456608315</v>
+      </c>
+      <c r="D8">
+        <v>1.12758995252874</v>
+      </c>
+      <c r="E8">
+        <v>3.06927808082554</v>
+      </c>
+      <c r="F8">
+        <v>2.36158918417904</v>
       </c>
       <c r="G8">
-        <v>0.9401045203262426</v>
+        <v>0.262107605577246</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-0.4206418316957073</v>
+        <v>0.7307261054907912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COX7C</t>
+          <t>APOE</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.167720580469344</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.06705688834247</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.63448508137071</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>12.5980842672244</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>19.5373923625301</t>
-        </is>
+        <v>0.210201788200326</v>
+      </c>
+      <c r="C9">
+        <v>2.80743413154786</v>
+      </c>
+      <c r="D9">
+        <v>3.00331325792827</v>
+      </c>
+      <c r="E9">
+        <v>68.2053458835676</v>
+      </c>
+      <c r="F9">
+        <v>107.609476007793</v>
       </c>
       <c r="G9">
-        <v>0.7711773627484136</v>
+        <v>-0.455985763669942</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-0.4387854263428733</v>
+        <v>0.4729540234507335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UMAD1</t>
+          <t>ADAMTS1</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.32478527834808</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.07428289994474</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.603988148806313</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.28174569347398</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>12.4970254220461</t>
-        </is>
+        <v>0.147242671791277</v>
+      </c>
+      <c r="C10">
+        <v>1.00872579772945</v>
+      </c>
+      <c r="D10">
+        <v>1.90428261063566</v>
+      </c>
+      <c r="E10">
+        <v>1.85131934519919</v>
+      </c>
+      <c r="F10">
+        <v>1.97890234418289</v>
       </c>
       <c r="G10">
-        <v>0.8779129898719175</v>
+        <v>-0.0666437748809587</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>-0.2974410071256036</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ICA1</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0.592793832526619</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5.93802895448038</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.05223017725191</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.453189151289441</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.02991030186078</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>-0.8209174010118908</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TMEM106B</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0.55313020413393</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.28255092047062</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.40129285561783</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.77953449395976</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.3068340085021</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>-0.2813106684716012</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>JAZF1</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>0.556801254470213</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.877910787066587</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.522262573815688</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.18995816127461</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.69772562704023</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>-0.168982597239009</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EPDR1</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.521012856922207</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2.37950998862435</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.95305107803754</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.17719165326065</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.59375743917425</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>-0.1750717592411137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SEC61G</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.233146644551846</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2.25761366543548</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.75011254624949</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.97097005780061</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.84082836385453</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>-0.2567995448148713</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SPDYE3</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.814280470358994</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.18472951791314</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.09139869460878</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.45246320614755</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.47460125074036</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0.1406575866504558</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CTSB</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.920512405185299</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.75386504255295</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.64538916160492</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.71115139677218</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.87888915829049</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>0.9435481814689194</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>-0.02468664894163036</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CLU</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>0.184155009964214</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1.93253397524928</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.35176721059826</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>435.958622464764</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>440.693019445733</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>-0.01080119578420289</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SHARPIN</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>0.107989103124064</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1.03724506682483</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.29932539220086</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.338490913460841</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.949262519509689</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>-1.031188139418968</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>USP6NL</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>0.6748563255594831</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.408624334501936</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.760178698214751</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.92001911492746</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.47447635622371</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>0.9227123532599705</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0.09492308613354448</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ANK3</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>0.457705876107697</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5.1591399647569</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.88714734384501</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.14120142389295</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.80224138387831</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>-0.4244774180846084</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TSPAN14</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>0.492154495285178</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1.34589067347187</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.14018351641859</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.68853403306843</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.91685051299583</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>-0.5466437263016203</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>PLEKHA1</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.11591709308774</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.599914593576</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.10335863299387</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.62361035222122</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.37586296125081</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>-0.150743250625868</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SPI1</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>0.612497434794361</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5.13051577182117</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.93443433006664</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.33271226161308</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.22562173278382</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0.02028619315094002</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SORL1</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.778721602169595</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.89127408032943</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.00953500064787</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>11.6561817798023</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.47082551643413</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0.3192086966715927</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>TPCN1</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>0.866917026196952</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4.69550222382859</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.81613319930371</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>30.0026612924372</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>33.3242204056402</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>-0.1049983846363371</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SLC24A4</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>0.548994707567361</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5.49145615071651</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.99282524925551</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.04796316286029</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.3415461249276</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0.1056160550080853</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SPPL2A</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0.488749108753094</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.76210191133422</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.00131618264177</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.85240100159218</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10.5044550716365</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>-0.5849474550496798</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MINDY2</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>0.921605200504526</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.32219700706285</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.34822566972231</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.83077942580959</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.22242728627407</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>0.9435481814689194</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0.1729333967283517</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SNX1</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0.463926708491765</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.940399462006177</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.443745162570071</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.44774870109737</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.0903834352737</t>
-        </is>
-      </c>
-      <c r="G30">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>-0.2331264676963492</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CTSH</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>0.5195720259268261</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3.96083500857177</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.60564361602241</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.89348991196463</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.91554695974035</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>-0.5998908698159781</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DOC2A</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>0.815506145593405</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2.48283296477772</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.2923147142788</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.13325758215404</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.71063955128492</t>
-        </is>
-      </c>
-      <c r="G32">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0.1448886205744691</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BCKDK</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>0.426843478714418</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3.07910865743632</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.53833827136119</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.982680570096644</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.863291342063786</t>
-        </is>
-      </c>
-      <c r="G33">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0.1295318869082535</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>IL34</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0.06616546756697771</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.91921219651917</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.97333196010518</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.184294360299002</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.4411270152749</t>
-        </is>
-      </c>
-      <c r="G34">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>-0.8727985869233885</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MAF</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>0.759490868522574</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.77764626200665</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.69244852072221</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>9.4829470217736</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.54900157831235</t>
-        </is>
-      </c>
-      <c r="G35">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0.2280798220002551</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>WDR81</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>0.200497622155684</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1.49385306208015</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.315662333362576</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5754185077798</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.916091182096448</t>
-        </is>
-      </c>
-      <c r="G36">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>-0.4650182878257983</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SCIMP</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>0.741188987527878</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>5.01873570719445</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.133846745988</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2.51481839885891</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.05898447906625</t>
-        </is>
-      </c>
-      <c r="G37">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0.199987703807366</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>GRN</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>0.178540722254209</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2.33612442465833</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.75238716166255</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.66357510157565</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.89311223655317</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>-0.0607694242027221</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TSPOAP1</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>0.573953357558458</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4.3245824969766</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.70510347316993</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5.94337482546313</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.48128679976667</t>
-        </is>
-      </c>
-      <c r="G39">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>-0.2301276847730006</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ABCA7</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>0.405958947494884</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1.52965456608315</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.12758995252874</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.06927808082554</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.36158918417904</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>0.8779129898719175</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0.2621076055772458</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>KLF16</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>0.874515832861621</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2.44631450487091</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.61847184774354</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1.18305701576102</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.23911116969936</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>0.9401045203262426</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>-0.04629254421999646</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>RBCK1</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>0.203577435335822</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2.07789049700399</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.16348450302924</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2.214516696785</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.1610787508381</t>
-        </is>
-      </c>
-      <c r="G42">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0.6456846535119529</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SLC2A4RG</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>0.6866696582399781</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>4.36098761874451</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.82624917212258</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.95168782706636</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.14438688589459</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>0.9227123532599705</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>-0.09415912689689504</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ADAMTS1</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>0.147242671791277</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1.00872579772945</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.90428261063566</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1.85131934519919</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.97890234418289</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>0.7711773627484136</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>-0.06664377488095871</v>
+        <v>0.4729540234507335</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +3107,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4444,11 +3139,6 @@
           <t>BHQ</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Bonf</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4466,1242 +3156,2493 @@
         <v>161.532379060493</v>
       </c>
       <c r="E2">
-        <v>0.894230051778283</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0.7981368638985654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADAM17</t>
+          <t>PSEN2</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.352432160304881</v>
+        <v>0.393792734365051</v>
       </c>
       <c r="C3">
-        <v>57.3784943410357</v>
+        <v>4.76175330638959</v>
       </c>
       <c r="D3">
-        <v>58.1254720240598</v>
+        <v>4.61498007637274</v>
       </c>
       <c r="E3">
-        <v>0.688314893468745</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>0.5906891015475766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRKD3</t>
+          <t>ADAM17</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.00632939085650636</v>
+        <v>0.352432160304881</v>
       </c>
       <c r="C4">
-        <v>39.7401769137958</v>
+        <v>57.3784943410357</v>
       </c>
       <c r="D4">
-        <v>41.5578508608154</v>
+        <v>58.1254720240598</v>
       </c>
       <c r="E4">
-        <v>0.0902989931587849</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>0.5715116113052124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NCK2</t>
+          <t>PRKD3</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.0061230209782787</v>
+        <v>0.00632939085650636</v>
       </c>
       <c r="C5">
-        <v>65.8574698181538</v>
+        <v>39.7401769137958</v>
       </c>
       <c r="D5">
-        <v>69.59428338321059</v>
+        <v>41.5578508608154</v>
       </c>
       <c r="E5">
-        <v>0.0892721364608782</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>0.0474704314237977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BIN1</t>
+          <t>NCK2</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.492335332524063</v>
+        <v>0.0061230209782787</v>
       </c>
       <c r="C6">
-        <v>33.1119798463278</v>
+        <v>65.8574698181538</v>
       </c>
       <c r="D6">
-        <v>35.2411126053982</v>
+        <v>69.59428338321059</v>
       </c>
       <c r="E6">
-        <v>0.776498485432522</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>0.0474704314237977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WDR12</t>
+          <t>BIN1</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.550169073251214</v>
+        <v>0.492335332524063</v>
       </c>
       <c r="C7">
-        <v>38.074115961224</v>
+        <v>33.1119798463278</v>
       </c>
       <c r="D7">
-        <v>38.257335961335</v>
+        <v>35.2411126053982</v>
       </c>
       <c r="E7">
-        <v>0.812537241235581</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>0.6713663625328131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INPP5D</t>
+          <t>WDR12</t>
         </is>
       </c>
       <c r="B8">
-        <v>8.02276733315763E-07</v>
+        <v>0.550169073251214</v>
       </c>
       <c r="C8">
-        <v>5.88515562366836</v>
+        <v>38.074115961224</v>
       </c>
       <c r="D8">
-        <v>8.295479486863499</v>
+        <v>38.257335961335</v>
       </c>
       <c r="E8">
-        <v>0.00037740204123771</v>
-      </c>
-      <c r="F8">
-        <v>0.0109446591958936</v>
+        <v>0.7304205336489461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IDUA</t>
+          <t>INPP5D</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.196581962936195</v>
+        <v>8.02276733315763E-07</v>
       </c>
       <c r="C9">
-        <v>8.689634112425679</v>
+        <v>5.88515562366836</v>
       </c>
       <c r="D9">
-        <v>9.031693488614239</v>
+        <v>8.295479486863499</v>
       </c>
       <c r="E9">
-        <v>0.531780911833348</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>2.406830199947289E-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANKH</t>
+          <t>IDUA</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.280489310577084</v>
+        <v>0.196581962936195</v>
       </c>
       <c r="C10">
-        <v>101.185628880892</v>
+        <v>8.689634112425679</v>
       </c>
       <c r="D10">
-        <v>103.319684991834</v>
+        <v>9.031693488614239</v>
       </c>
       <c r="E10">
-        <v>0.623924307379297</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>0.5250701165677725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COX7C</t>
+          <t>ANKH</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.0071841216528766</v>
+        <v>0.280489310577084</v>
       </c>
       <c r="C11">
-        <v>126.581246458728</v>
+        <v>101.185628880892</v>
       </c>
       <c r="D11">
-        <v>121.120344039762</v>
+        <v>103.319684991834</v>
       </c>
       <c r="E11">
-        <v>0.0969394535989541</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>0.5428825366008078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TNIP1</t>
+          <t>COX7C</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.455210793909751</v>
+        <v>0.0071841216528766</v>
       </c>
       <c r="C12">
-        <v>14.2872970672066</v>
+        <v>126.581246458728</v>
       </c>
       <c r="D12">
-        <v>14.1676066121894</v>
+        <v>121.120344039762</v>
       </c>
       <c r="E12">
-        <v>0.756198357326282</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>0.04789414435251067</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UNC5CL</t>
+          <t>TNIP1</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.633410108013298</v>
+        <v>0.455210793909751</v>
       </c>
       <c r="C13">
-        <v>3.13872590862686</v>
+        <v>14.2872970672066</v>
       </c>
       <c r="D13">
-        <v>2.96372818831808</v>
+        <v>14.1676066121894</v>
       </c>
       <c r="E13">
-        <v>0.857158224172238</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>0.6661621374289038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CD2AP</t>
+          <t>UNC5CL</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.686766005205492</v>
+        <v>0.633410108013298</v>
       </c>
       <c r="C14">
-        <v>47.822460309677</v>
+        <v>3.13872590862686</v>
       </c>
       <c r="D14">
-        <v>48.0939899228102</v>
+        <v>2.96372818831808</v>
       </c>
       <c r="E14">
-        <v>0.881833683044375</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>0.7917626350166225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HS3ST5</t>
+          <t>CD2AP</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.0184621817444048</v>
+        <v>0.686766005205492</v>
       </c>
       <c r="C15">
-        <v>132.537408314667</v>
+        <v>47.822460309677</v>
       </c>
       <c r="D15">
-        <v>121.684445446514</v>
+        <v>48.0939899228102</v>
       </c>
       <c r="E15">
-        <v>0.159405440059735</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>0.7943589545079542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UMAD1</t>
+          <t>HS3ST5</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.688444427240227</v>
+        <v>0.0184621817444048</v>
       </c>
       <c r="C16">
-        <v>152.776045820034</v>
+        <v>132.537408314667</v>
       </c>
       <c r="D16">
-        <v>151.667662508804</v>
+        <v>121.684445446514</v>
       </c>
       <c r="E16">
-        <v>0.882762617866838</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>0.09231090872202399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICA1</t>
+          <t>UMAD1</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.232019112401188</v>
+        <v>0.688444427240227</v>
       </c>
       <c r="C17">
-        <v>10.9258427265483</v>
+        <v>152.776045820034</v>
       </c>
       <c r="D17">
-        <v>11.1327292438443</v>
+        <v>151.667662508804</v>
       </c>
       <c r="E17">
-        <v>0.574414664868476</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>0.7943589545079542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMEM106B</t>
+          <t>ICA1</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.486686449502074</v>
+        <v>0.232019112401188</v>
       </c>
       <c r="C18">
-        <v>85.99153092290619</v>
+        <v>10.9258427265483</v>
       </c>
       <c r="D18">
-        <v>84.94985852345449</v>
+        <v>11.1327292438443</v>
       </c>
       <c r="E18">
-        <v>0.773547716829462</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <v>0.5363366475700292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JAZF1</t>
+          <t>TMEM106B</t>
         </is>
       </c>
       <c r="B19">
-        <v>8.56310348852009E-05</v>
+        <v>0.486686449502074</v>
       </c>
       <c r="C19">
-        <v>106.586408276593</v>
+        <v>85.99153092290619</v>
       </c>
       <c r="D19">
-        <v>115.418634762867</v>
+        <v>84.94985852345449</v>
       </c>
       <c r="E19">
-        <v>0.00758557518119422</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>0.6713663625328131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EPDR1</t>
+          <t>JAZF1</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.477871520554469</v>
+        <v>8.56310348852009E-05</v>
       </c>
       <c r="C20">
-        <v>30.0094185843351</v>
+        <v>106.586408276593</v>
       </c>
       <c r="D20">
-        <v>31.1396997959806</v>
+        <v>115.418634762867</v>
       </c>
       <c r="E20">
-        <v>0.768220985553154</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>0.001712620697704018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SEC61G</t>
+          <t>EPDR1</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.20402613843264</v>
+        <v>0.477871520554469</v>
       </c>
       <c r="C21">
-        <v>24.0922289596355</v>
+        <v>30.0094185843351</v>
       </c>
       <c r="D21">
-        <v>23.8041546699252</v>
+        <v>31.1396997959806</v>
       </c>
       <c r="E21">
-        <v>0.540698182741596</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+        <v>0.6713663625328131</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SPDYE3</t>
+          <t>SEC61G</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.572162751358341</v>
+        <v>0.20402613843264</v>
       </c>
       <c r="C22">
-        <v>29.8590929028523</v>
+        <v>24.0922289596355</v>
       </c>
       <c r="D22">
-        <v>29.7516398041548</v>
+        <v>23.8041546699252</v>
       </c>
       <c r="E22">
-        <v>0.8257981648360651</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+        <v>0.5250701165677725</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CTSB</t>
+          <t>SPDYE3</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.0473209321709548</v>
+        <v>0.572162751358341</v>
       </c>
       <c r="C23">
-        <v>64.4224675020793</v>
+        <v>29.8590929028523</v>
       </c>
       <c r="D23">
-        <v>63.9264490812342</v>
+        <v>29.7516398041548</v>
       </c>
       <c r="E23">
-        <v>0.269931167355593</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+        <v>0.7304205336489461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PTK2B</t>
+          <t>CTSB</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.3169789253202</v>
+        <v>0.0473209321709548</v>
       </c>
       <c r="C24">
-        <v>73.21690511341509</v>
+        <v>64.4224675020793</v>
       </c>
       <c r="D24">
-        <v>75.788213620739</v>
+        <v>63.9264490812342</v>
       </c>
       <c r="E24">
-        <v>0.659885014377868</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+        <v>0.1862282108622562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CLU</t>
+          <t>PTK2B</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.137161353241555</v>
+        <v>0.3169789253202</v>
       </c>
       <c r="C25">
-        <v>2097.50404077154</v>
+        <v>73.21690511341509</v>
       </c>
       <c r="D25">
-        <v>1937.47495864059</v>
+        <v>75.788213620739</v>
       </c>
       <c r="E25">
-        <v>0.449265448537377</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>0.5593745740944706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SHARPIN</t>
+          <t>CLU</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.303928127885647</v>
+        <v>0.137161353241555</v>
       </c>
       <c r="C26">
-        <v>19.650845878674</v>
+        <v>2097.50404077154</v>
       </c>
       <c r="D26">
-        <v>18.9769524557661</v>
+        <v>1937.47495864059</v>
       </c>
       <c r="E26">
-        <v>0.645321014881867</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>0.4114840597246651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ABCA1</t>
+          <t>SHARPIN</t>
         </is>
       </c>
       <c r="B27">
-        <v>0.0142559046804361</v>
+        <v>0.303928127885647</v>
       </c>
       <c r="C27">
-        <v>136.425730678553</v>
+        <v>19.650845878674</v>
       </c>
       <c r="D27">
-        <v>149.665948496983</v>
+        <v>18.9769524557661</v>
       </c>
       <c r="E27">
-        <v>0.138338445705481</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>0.5593745740944706</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>USP6NL</t>
+          <t>ABCA1</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.336864798298266</v>
+        <v>0.0142559046804361</v>
       </c>
       <c r="C28">
-        <v>48.6325632827526</v>
+        <v>136.425730678553</v>
       </c>
       <c r="D28">
-        <v>49.6527034965182</v>
+        <v>149.665948496983</v>
       </c>
       <c r="E28">
-        <v>0.673729596596532</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>0.077759480075106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANK3</t>
+          <t>USP6NL</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.776751312299057</v>
+        <v>0.336864798298266</v>
       </c>
       <c r="C29">
-        <v>68.2546232814052</v>
+        <v>48.6325632827526</v>
       </c>
       <c r="D29">
-        <v>71.6648663887631</v>
+        <v>49.6527034965182</v>
       </c>
       <c r="E29">
-        <v>0.919859909234537</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>0.56144133049711</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TSPAN14</t>
+          <t>ANK3</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.0473893231063367</v>
+        <v>0.776751312299057</v>
       </c>
       <c r="C30">
-        <v>31.7346714394555</v>
+        <v>68.2546232814052</v>
       </c>
       <c r="D30">
-        <v>30.2074976766702</v>
+        <v>71.6648663887631</v>
       </c>
       <c r="E30">
-        <v>0.269931167355593</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>0.8299772436113746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLEKHA1</t>
+          <t>TSPAN14</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.00036460400219452</v>
+        <v>0.0473893231063367</v>
       </c>
       <c r="C31">
-        <v>55.1306484619168</v>
+        <v>31.7346714394555</v>
       </c>
       <c r="D31">
-        <v>59.7874794335068</v>
+        <v>30.2074976766702</v>
       </c>
       <c r="E31">
-        <v>0.0182133859400773</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+        <v>0.1862282108622562</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SPI1</t>
+          <t>PLEKHA1</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.0387005573477708</v>
+        <v>0.00036460400219452</v>
       </c>
       <c r="C32">
-        <v>17.5606425642891</v>
+        <v>55.1306484619168</v>
       </c>
       <c r="D32">
-        <v>18.9900380207422</v>
+        <v>59.7874794335068</v>
       </c>
       <c r="E32">
-        <v>0.24286126196248</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>0.0054690600329178</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EED</t>
+          <t>SPI1</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.255540707032602</v>
+        <v>0.0387005573477708</v>
       </c>
       <c r="C33">
-        <v>34.9934381694483</v>
+        <v>17.5606425642891</v>
       </c>
       <c r="D33">
-        <v>35.7077825896612</v>
+        <v>18.9900380207422</v>
       </c>
       <c r="E33">
-        <v>0.6017756473914651</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>0.1786179569897114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SORL1</t>
+          <t>EED</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.731625458573685</v>
+        <v>0.255540707032602</v>
       </c>
       <c r="C34">
-        <v>258.666653420134</v>
+        <v>34.9934381694483</v>
       </c>
       <c r="D34">
-        <v>257.402627307186</v>
+        <v>35.7077825896612</v>
       </c>
       <c r="E34">
-        <v>0.899281114241445</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>0.5407003317058097</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TPCN1</t>
+          <t>SORL1</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.5661777300326259</v>
+        <v>0.731625458573685</v>
       </c>
       <c r="C35">
-        <v>203.22724580458</v>
+        <v>258.666653420134</v>
       </c>
       <c r="D35">
-        <v>205.699536287605</v>
+        <v>257.402627307186</v>
       </c>
       <c r="E35">
-        <v>0.822643156151356</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>0.7981368638985654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FERMT2</t>
+          <t>TPCN1</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.00231917122012964</v>
+        <v>0.5661777300326259</v>
       </c>
       <c r="C36">
-        <v>201.074497829486</v>
+        <v>203.22724580458</v>
       </c>
       <c r="D36">
-        <v>185.99258916476</v>
+        <v>205.699536287605</v>
       </c>
       <c r="E36">
-        <v>0.0508886410270297</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+        <v>0.7304205336489461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SLC24A4</t>
+          <t>FERMT2</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.975301174514025</v>
+        <v>0.00231917122012964</v>
       </c>
       <c r="C37">
-        <v>45.4795816047542</v>
+        <v>201.074497829486</v>
       </c>
       <c r="D37">
-        <v>45.4762339828744</v>
+        <v>185.99258916476</v>
       </c>
       <c r="E37">
-        <v>0.990445790917578</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>0.02783005464155568</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SPPL2A</t>
+          <t>PSEN1</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.331835404887438</v>
+        <v>0.232412547280346</v>
       </c>
       <c r="C38">
-        <v>82.81037989597409</v>
+        <v>67.79748873177699</v>
       </c>
       <c r="D38">
-        <v>79.4656974810064</v>
+        <v>69.01181811864269</v>
       </c>
       <c r="E38">
-        <v>0.670404321508322</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>0.5363366475700292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MINDY2</t>
+          <t>SLC24A4</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.31398673614266</v>
+        <v>0.975301174514025</v>
       </c>
       <c r="C39">
-        <v>66.9093738394134</v>
+        <v>45.4795816047542</v>
       </c>
       <c r="D39">
-        <v>65.7040020355514</v>
+        <v>45.4762339828744</v>
       </c>
       <c r="E39">
-        <v>0.65615916888146</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
+        <v>0.983673297394937</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>APH1B</t>
+          <t>SPPL2A</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.06595912364736541</v>
+        <v>0.331835404887438</v>
       </c>
       <c r="C40">
-        <v>40.1214143659546</v>
+        <v>82.81037989597409</v>
       </c>
       <c r="D40">
-        <v>41.5559379981354</v>
+        <v>79.4656974810064</v>
       </c>
       <c r="E40">
-        <v>0.316201358294826</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>0.56144133049711</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SNX1</t>
+          <t>MINDY2</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.671160370404161</v>
+        <v>0.31398673614266</v>
       </c>
       <c r="C41">
-        <v>56.5783256802855</v>
+        <v>66.9093738394134</v>
       </c>
       <c r="D41">
-        <v>56.0465255981422</v>
+        <v>65.7040020355514</v>
       </c>
       <c r="E41">
-        <v>0.874579212250794</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>0.5593745740944706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>APH1B</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.210028046627109</v>
+        <v>0.06595912364736541</v>
       </c>
       <c r="C42">
-        <v>71.89554374514741</v>
+        <v>40.1214143659546</v>
       </c>
       <c r="D42">
-        <v>73.3674734882897</v>
+        <v>41.5559379981354</v>
       </c>
       <c r="E42">
-        <v>0.54909407753165</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
+        <v>0.219863745491218</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DOC2A</t>
+          <t>SNX1</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.983673297394937</v>
+        <v>0.671160370404161</v>
       </c>
       <c r="C43">
-        <v>26.2546570094339</v>
+        <v>56.5783256802855</v>
       </c>
       <c r="D43">
-        <v>27.8080798040335</v>
+        <v>56.0465255981422</v>
       </c>
       <c r="E43">
-        <v>0.9937226993878679</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
+        <v>0.7943589545079542</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCKDK</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.920709012297981</v>
+        <v>0.210028046627109</v>
       </c>
       <c r="C44">
-        <v>9.681279792095671</v>
+        <v>71.89554374514741</v>
       </c>
       <c r="D44">
-        <v>9.629353126672211</v>
+        <v>73.3674734882897</v>
       </c>
       <c r="E44">
-        <v>0.970535959176093</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
+        <v>0.5250701165677725</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IL34</t>
+          <t>DOC2A</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.678472933203851</v>
+        <v>0.983673297394937</v>
       </c>
       <c r="C45">
-        <v>4.03302733812443</v>
+        <v>26.2546570094339</v>
       </c>
       <c r="D45">
-        <v>4.12867866668198</v>
+        <v>27.8080798040335</v>
       </c>
       <c r="E45">
-        <v>0.878792086210364</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
+        <v>0.983673297394937</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>BCKDK</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.049660856229935</v>
+        <v>0.920709012297981</v>
       </c>
       <c r="C46">
-        <v>43.379657579291</v>
+        <v>9.681279792095671</v>
       </c>
       <c r="D46">
-        <v>46.1780061498154</v>
+        <v>9.629353126672211</v>
       </c>
       <c r="E46">
-        <v>0.277539287459555</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
+        <v>0.9524575989289459</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLCG2</t>
+          <t>IL34</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.368491096025867</v>
+        <v>0.678472933203851</v>
       </c>
       <c r="C47">
-        <v>19.8721964779112</v>
+        <v>4.03302733812443</v>
       </c>
       <c r="D47">
-        <v>15.2111082551919</v>
+        <v>4.12867866668198</v>
       </c>
       <c r="E47">
-        <v>0.697123218968919</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
+        <v>0.7943589545079542</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WDR81</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.371715521490272</v>
+        <v>0.049660856229935</v>
       </c>
       <c r="C48">
-        <v>10.9291791068435</v>
+        <v>43.379657579291</v>
       </c>
       <c r="D48">
-        <v>10.6910595521021</v>
+        <v>46.1780061498154</v>
       </c>
       <c r="E48">
-        <v>0.6992332230200859</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+        <v>0.1862282108622562</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SCIMP</t>
+          <t>PLCG2</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.008376524951434041</v>
+        <v>0.368491096025867</v>
       </c>
       <c r="C49">
-        <v>8.692601677244429</v>
+        <v>19.8721964779112</v>
       </c>
       <c r="D49">
-        <v>9.598880649643959</v>
+        <v>15.2111082551919</v>
       </c>
       <c r="E49">
-        <v>0.104645195409765</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
+        <v>0.5718700330619569</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GRN</t>
+          <t>WDR81</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.788478381430806</v>
+        <v>0.371715521490272</v>
       </c>
       <c r="C50">
-        <v>22.9302940555228</v>
+        <v>10.9291791068435</v>
       </c>
       <c r="D50">
-        <v>22.5910160240963</v>
+        <v>10.6910595521021</v>
       </c>
       <c r="E50">
-        <v>0.924021063143206</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>0.5718700330619569</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WNT3</t>
+          <t>SCIMP</t>
         </is>
       </c>
       <c r="B51">
-        <v>0.256758465433299</v>
+        <v>0.008376524951434041</v>
       </c>
       <c r="C51">
-        <v>4.01947455278688</v>
+        <v>8.692601677244429</v>
       </c>
       <c r="D51">
-        <v>3.88012223259689</v>
+        <v>9.598880649643959</v>
       </c>
       <c r="E51">
-        <v>0.603029993341988</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>0.05025914970860425</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>GRN</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.0606056195914379</v>
+        <v>0.788478381430806</v>
       </c>
       <c r="C52">
-        <v>81.6147504528715</v>
+        <v>22.9302940555228</v>
       </c>
       <c r="D52">
-        <v>78.4353269142867</v>
+        <v>22.5910160240963</v>
       </c>
       <c r="E52">
-        <v>0.304523706249133</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+        <v>0.8299772436113746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ABCA7</t>
+          <t>WNT3</t>
         </is>
       </c>
       <c r="B53">
-        <v>0.117350046231563</v>
+        <v>0.256758465433299</v>
       </c>
       <c r="C53">
-        <v>10.7928555970214</v>
+        <v>4.01947455278688</v>
       </c>
       <c r="D53">
-        <v>11.8117269193435</v>
+        <v>3.88012223259689</v>
       </c>
       <c r="E53">
-        <v>0.416420352534682</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>0.5407003317058097</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KLF16</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.277164198777471</v>
+        <v>0.0606056195914379</v>
       </c>
       <c r="C54">
-        <v>9.48358196048023</v>
+        <v>81.6147504528715</v>
       </c>
       <c r="D54">
-        <v>10.2328826730813</v>
+        <v>78.4353269142867</v>
       </c>
       <c r="E54">
-        <v>0.621304791817533</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
+        <v>0.2139021867933102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RBCK1</t>
+          <t>ABCA7</t>
         </is>
       </c>
       <c r="B55">
-        <v>0.0033177317858545</v>
+        <v>0.117350046231563</v>
       </c>
       <c r="C55">
-        <v>37.7054825337176</v>
+        <v>10.7928555970214</v>
       </c>
       <c r="D55">
-        <v>35.279189065262</v>
+        <v>11.8117269193435</v>
       </c>
       <c r="E55">
-        <v>0.0637471789051086</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
+        <v>0.3705790933628306</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SLC2A4RG</t>
+          <t>KLF16</t>
         </is>
       </c>
       <c r="B56">
-        <v>2.20883873182259E-07</v>
+        <v>0.277164198777471</v>
       </c>
       <c r="C56">
-        <v>25.4996519964347</v>
+        <v>9.48358196048023</v>
       </c>
       <c r="D56">
-        <v>20.5606687476854</v>
+        <v>10.2328826730813</v>
       </c>
       <c r="E56">
-        <v>0.00016740543321957</v>
-      </c>
-      <c r="F56">
-        <v>0.00301329779795238</v>
+        <v>0.5428825366008078</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>APOE</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.7263848579822521</v>
+        <v>0.261338493657808</v>
       </c>
       <c r="C57">
-        <v>162.672871072867</v>
+        <v>411.985927356975</v>
       </c>
       <c r="D57">
-        <v>170.609644720644</v>
+        <v>379.325595973635</v>
       </c>
       <c r="E57">
-        <v>0.896507376159951</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
+        <v>0.5407003317058097</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>RBCK1</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.0033177317858545</v>
+      </c>
+      <c r="C58">
+        <v>37.7054825337176</v>
+      </c>
+      <c r="D58">
+        <v>35.279189065262</v>
+      </c>
+      <c r="E58">
+        <v>0.033177317858545</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SLC2A4RG</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>2.20883873182259E-07</v>
+      </c>
+      <c r="C59">
+        <v>25.4996519964347</v>
+      </c>
+      <c r="D59">
+        <v>20.5606687476854</v>
+      </c>
+      <c r="E59">
+        <v>1.325303239093554E-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.7263848579822521</v>
+      </c>
+      <c r="C60">
+        <v>162.672871072867</v>
+      </c>
+      <c r="D60">
+        <v>170.609644720644</v>
+      </c>
+      <c r="E60">
+        <v>0.7981368638985654</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>ADAMTS1</t>
         </is>
       </c>
+      <c r="B61">
+        <v>0.186859305158175</v>
+      </c>
+      <c r="C61">
+        <v>5.10375233901216</v>
+      </c>
+      <c r="D61">
+        <v>5.7496616906268</v>
+      </c>
+      <c r="E61">
+        <v>0.5250701165677725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>...1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>logFC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logCPM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PValue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>BHQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SORT1</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.00355907324569169</v>
+      </c>
+      <c r="C2">
+        <v>7.37025339423647</v>
+      </c>
+      <c r="D2">
+        <v>0.0205647761130325</v>
+      </c>
+      <c r="E2">
+        <v>0.8860414678049811</v>
+      </c>
+      <c r="F2">
+        <v>0.9555762498652178</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PSEN2</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>-0.0307706368897047</v>
+      </c>
+      <c r="C3">
+        <v>2.40388227079551</v>
+      </c>
+      <c r="D3">
+        <v>0.328683139257746</v>
+      </c>
+      <c r="E3">
+        <v>0.878612519713329</v>
+      </c>
+      <c r="F3">
+        <v>0.9555762498652178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ADAM17</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.00301315909977695</v>
+      </c>
+      <c r="C4">
+        <v>5.8710020721969</v>
+      </c>
+      <c r="D4">
+        <v>0.0184460361922011</v>
+      </c>
+      <c r="E4">
+        <v>0.892033328844278</v>
+      </c>
+      <c r="F4">
+        <v>0.9555762498652178</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRKD3</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.0477812741775861</v>
+      </c>
+      <c r="C5">
+        <v>5.36506960074452</v>
+      </c>
+      <c r="D5">
+        <v>3.12067179361502</v>
+      </c>
+      <c r="E5">
+        <v>0.128201244846754</v>
+      </c>
+      <c r="F5">
+        <v>0.4524749818120729</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NCK2</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.0585946093714621</v>
+      </c>
+      <c r="C6">
+        <v>6.1057018676562</v>
+      </c>
+      <c r="D6">
+        <v>5.64219432235039</v>
+      </c>
+      <c r="E6">
+        <v>0.0179927871817748</v>
+      </c>
+      <c r="F6">
+        <v>0.1079567230906488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BIN1</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.013897279626791</v>
+      </c>
+      <c r="C7">
+        <v>5.1355022151245</v>
+      </c>
+      <c r="D7">
+        <v>0.119465027709649</v>
+      </c>
+      <c r="E7">
+        <v>0.729792910463455</v>
+      </c>
+      <c r="F7">
+        <v>0.8448855181217376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WDR12</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>-0.0220563096359092</v>
+      </c>
+      <c r="C8">
+        <v>5.23387615340856</v>
+      </c>
+      <c r="D8">
+        <v>0.291115550580139</v>
+      </c>
+      <c r="E8">
+        <v>0.589799772402901</v>
+      </c>
+      <c r="F8">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INPP5D</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.52956190245156</v>
+      </c>
+      <c r="C9">
+        <v>2.95229945555145</v>
+      </c>
+      <c r="D9">
+        <v>31.9902224140299</v>
+      </c>
+      <c r="E9">
+        <v>2.91257760945396E-08</v>
+      </c>
+      <c r="F9">
+        <v>8.73773282836188E-07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IDUA</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.0525753536985561</v>
+      </c>
+      <c r="C10">
+        <v>3.24434242356946</v>
+      </c>
+      <c r="D10">
+        <v>1.11414700933612</v>
+      </c>
+      <c r="E10">
+        <v>0.291804541727582</v>
+      </c>
+      <c r="F10">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANKH</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.016880880341921</v>
+      </c>
+      <c r="C11">
+        <v>6.69013645521731</v>
+      </c>
+      <c r="D11">
+        <v>0.598053326567864</v>
+      </c>
+      <c r="E11">
+        <v>0.439767875501964</v>
+      </c>
+      <c r="F11">
+        <v>0.7074071757973077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>COX7C</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>-0.115638195133502</v>
+      </c>
+      <c r="C12">
+        <v>6.98554858923131</v>
+      </c>
+      <c r="D12">
+        <v>4.49126138060063</v>
+      </c>
+      <c r="E12">
+        <v>0.0346697368904732</v>
+      </c>
+      <c r="F12">
+        <v>0.1710314196244315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TNIP1</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>-0.0202312674937587</v>
+      </c>
+      <c r="C13">
+        <v>3.91056985139979</v>
+      </c>
+      <c r="D13">
+        <v>0.366024785749031</v>
+      </c>
+      <c r="E13">
+        <v>0.680692766360143</v>
+      </c>
+      <c r="F13">
+        <v>0.8346601774801604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UNC5CL</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>-0.0434572045133899</v>
+      </c>
+      <c r="C14">
+        <v>1.86826021137649</v>
+      </c>
+      <c r="D14">
+        <v>0.299516339847394</v>
+      </c>
+      <c r="E14">
+        <v>0.584483899359957</v>
+      </c>
+      <c r="F14">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CD2AP</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>-0.00206063472739004</v>
+      </c>
+      <c r="C15">
+        <v>5.61388830867541</v>
+      </c>
+      <c r="D15">
+        <v>0.00556771344640814</v>
+      </c>
+      <c r="E15">
+        <v>0.940555791879872</v>
+      </c>
+      <c r="F15">
+        <v>0.962878682939298</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS3ST5</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>-0.143598317193789</v>
+      </c>
+      <c r="C16">
+        <v>7.00318377196449</v>
+      </c>
+      <c r="D16">
+        <v>6.93780724501679</v>
+      </c>
+      <c r="E16">
+        <v>0.008759023104254009</v>
+      </c>
+      <c r="F16">
+        <v>0.06569267328190508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UMAD1</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>-0.0190168419992703</v>
+      </c>
+      <c r="C17">
+        <v>7.27905965468033</v>
+      </c>
+      <c r="D17">
+        <v>0.860575284040249</v>
+      </c>
+      <c r="E17">
+        <v>0.35412415374751</v>
+      </c>
+      <c r="F17">
+        <v>0.6249249772014882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ICA1</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>-0.0725006721816527</v>
+      </c>
+      <c r="C18">
+        <v>3.53690907624334</v>
+      </c>
+      <c r="D18">
+        <v>1.97818558086079</v>
+      </c>
+      <c r="E18">
+        <v>0.308806874060195</v>
+      </c>
+      <c r="F18">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TMEM106B</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>-0.0135005910492735</v>
+      </c>
+      <c r="C19">
+        <v>6.4455126324533</v>
+      </c>
+      <c r="D19">
+        <v>0.218200883373656</v>
+      </c>
+      <c r="E19">
+        <v>0.640662614315746</v>
+      </c>
+      <c r="F19">
+        <v>0.8346601774801604</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JAZF1</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.0932511893161051</v>
+      </c>
+      <c r="C20">
+        <v>6.8153502574678</v>
+      </c>
+      <c r="D20">
+        <v>13.1329595540032</v>
+      </c>
+      <c r="E20">
+        <v>0.00032664817537341</v>
+      </c>
+      <c r="F20">
+        <v>0.00489972263060115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EPDR1</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.0246164785995288</v>
+      </c>
+      <c r="C21">
+        <v>4.9742063762414</v>
+      </c>
+      <c r="D21">
+        <v>0.560185812836275</v>
+      </c>
+      <c r="E21">
+        <v>0.454615001617794</v>
+      </c>
+      <c r="F21">
+        <v>0.7074071757973077</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SEC61G</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>-0.0554155055169685</v>
+      </c>
+      <c r="C22">
+        <v>4.63147041605047</v>
+      </c>
+      <c r="D22">
+        <v>1.26178480961142</v>
+      </c>
+      <c r="E22">
+        <v>0.261971574991858</v>
+      </c>
+      <c r="F22">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SPDYE3</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>-0.08402582158196099</v>
+      </c>
+      <c r="C23">
+        <v>4.88154471234789</v>
+      </c>
+      <c r="D23">
+        <v>1.65574538606075</v>
+      </c>
+      <c r="E23">
+        <v>0.198905620829707</v>
+      </c>
+      <c r="F23">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CTSB</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>-0.0415558050764639</v>
+      </c>
+      <c r="C24">
+        <v>6.02096793496732</v>
+      </c>
+      <c r="D24">
+        <v>1.3055637244493</v>
+      </c>
+      <c r="E24">
+        <v>0.253866994159045</v>
+      </c>
+      <c r="F24">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PTK2B</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>-0.0272656965112917</v>
+      </c>
+      <c r="C25">
+        <v>6.24216743100932</v>
+      </c>
+      <c r="D25">
+        <v>0.34881564218432</v>
+      </c>
+      <c r="E25">
+        <v>0.555110109556837</v>
+      </c>
+      <c r="F25">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CLU</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>-0.0609165505900131</v>
+      </c>
+      <c r="C26">
+        <v>11.0409692662696</v>
+      </c>
+      <c r="D26">
+        <v>1.44120886847334</v>
+      </c>
+      <c r="E26">
+        <v>0.230637758339966</v>
+      </c>
+      <c r="F26">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SHARPIN</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>-0.0329191309778168</v>
+      </c>
+      <c r="C27">
+        <v>4.32102242978202</v>
+      </c>
+      <c r="D27">
+        <v>0.899814741231485</v>
+      </c>
+      <c r="E27">
+        <v>0.390500644353828</v>
+      </c>
+      <c r="F27">
+        <v>0.65083440725638</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ABCA1</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.141859633509471</v>
+      </c>
+      <c r="C28">
+        <v>7.14414823462871</v>
+      </c>
+      <c r="D28">
+        <v>7.16633297911536</v>
+      </c>
+      <c r="E28">
+        <v>0.00772692054935759</v>
+      </c>
+      <c r="F28">
+        <v>0.06569267328190508</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>USP6NL</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.017018691604677</v>
+      </c>
+      <c r="C29">
+        <v>5.6615642915793</v>
+      </c>
+      <c r="D29">
+        <v>0.348906749415147</v>
+      </c>
+      <c r="E29">
+        <v>0.95293835315634</v>
+      </c>
+      <c r="F29">
+        <v>0.962878682939298</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ANK3</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>-0.0270504697998181</v>
+      </c>
+      <c r="C30">
+        <v>6.12497964510519</v>
+      </c>
+      <c r="D30">
+        <v>0.399714906390843</v>
+      </c>
+      <c r="E30">
+        <v>0.527589323496805</v>
+      </c>
+      <c r="F30">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TSPAN14</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>-0.07545610817849049</v>
+      </c>
+      <c r="C31">
+        <v>5.01812481502936</v>
+      </c>
+      <c r="D31">
+        <v>5.39332311597677</v>
+      </c>
+      <c r="E31">
+        <v>0.0207034117551475</v>
+      </c>
+      <c r="F31">
+        <v>0.1129277004826227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PLEKHA1</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>0.0726532618472477</v>
+      </c>
+      <c r="C32">
+        <v>5.88069793303103</v>
+      </c>
+      <c r="D32">
+        <v>10.2528032444137</v>
+      </c>
+      <c r="E32">
+        <v>0.00147128608476774</v>
+      </c>
+      <c r="F32">
+        <v>0.01765543301721288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SPI1</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.06744313283633301</v>
+      </c>
+      <c r="C33">
+        <v>4.14764436177127</v>
+      </c>
+      <c r="D33">
+        <v>1.05141972122348</v>
+      </c>
+      <c r="E33">
+        <v>0.305785614126885</v>
+      </c>
+      <c r="F33">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EED</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.0227117588203898</v>
+      </c>
+      <c r="C34">
+        <v>5.16824524521728</v>
+      </c>
+      <c r="D34">
+        <v>0.547378632635085</v>
+      </c>
+      <c r="E34">
+        <v>0.45981466426825</v>
+      </c>
+      <c r="F34">
+        <v>0.7074071757973077</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SORL1</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>-0.00763943532779037</v>
+      </c>
+      <c r="C35">
+        <v>8.00353049434646</v>
+      </c>
+      <c r="D35">
+        <v>0.117229955859928</v>
+      </c>
+      <c r="E35">
+        <v>0.732234115705506</v>
+      </c>
+      <c r="F35">
+        <v>0.8448855181217376</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TPCN1</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>-0.00721978558657335</v>
+      </c>
+      <c r="C36">
+        <v>7.62205235031417</v>
+      </c>
+      <c r="D36">
+        <v>0.0183660058040803</v>
+      </c>
+      <c r="E36">
+        <v>0.892266359839256</v>
+      </c>
+      <c r="F36">
+        <v>0.9555762498652178</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FERMT2</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>-0.122967684483131</v>
+      </c>
+      <c r="C37">
+        <v>7.60648511556951</v>
+      </c>
+      <c r="D37">
+        <v>17.3203201918818</v>
+      </c>
+      <c r="E37">
+        <v>3.85101926793016E-05</v>
+      </c>
+      <c r="F37">
+        <v>0.0007702038535860321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PSEN1</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.0127010727961762</v>
+      </c>
+      <c r="C38">
+        <v>6.10747764509568</v>
+      </c>
+      <c r="D38">
+        <v>0.289577729051944</v>
+      </c>
+      <c r="E38">
+        <v>0.590783587356272</v>
+      </c>
+      <c r="F38">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SLC24A4</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>-0.0364370096131141</v>
+      </c>
+      <c r="C39">
+        <v>5.52134673179105</v>
+      </c>
+      <c r="D39">
+        <v>0.307940972973931</v>
+      </c>
+      <c r="E39">
+        <v>0.579249395018249</v>
+      </c>
+      <c r="F39">
+        <v>0.7877114498083626</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SPPL2A</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>-0.0457825889424623</v>
+      </c>
+      <c r="C40">
+        <v>6.38768229732561</v>
+      </c>
+      <c r="D40">
+        <v>1.64108191636358</v>
+      </c>
+      <c r="E40">
+        <v>0.200902029836717</v>
+      </c>
+      <c r="F40">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MINDY2</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>-0.0299016821502917</v>
+      </c>
+      <c r="C41">
+        <v>6.08723013208112</v>
+      </c>
+      <c r="D41">
+        <v>2.39424433181884</v>
+      </c>
+      <c r="E41">
+        <v>0.122554971743927</v>
+      </c>
+      <c r="F41">
+        <v>0.4524749818120729</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>APH1B</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>0.0338719954704459</v>
+      </c>
+      <c r="C42">
+        <v>5.37072291827511</v>
+      </c>
+      <c r="D42">
+        <v>1.09219467956988</v>
+      </c>
+      <c r="E42">
+        <v>0.296601910494617</v>
+      </c>
+      <c r="F42">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SNX1</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>-0.0212252403902366</v>
+      </c>
+      <c r="C43">
+        <v>5.84905663268939</v>
+      </c>
+      <c r="D43">
+        <v>1.47948389673647</v>
+      </c>
+      <c r="E43">
+        <v>0.224555869470523</v>
+      </c>
+      <c r="F43">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.0539183242455627</v>
+      </c>
+      <c r="C44">
+        <v>6.1624062505232</v>
+      </c>
+      <c r="D44">
+        <v>0.822868562893896</v>
+      </c>
+      <c r="E44">
+        <v>0.36487623485064</v>
+      </c>
+      <c r="F44">
+        <v>0.6255021168868115</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DOC2A</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.0222490460949898</v>
+      </c>
+      <c r="C45">
+        <v>4.79867003464336</v>
+      </c>
+      <c r="D45">
+        <v>0.153040656472055</v>
+      </c>
+      <c r="E45">
+        <v>0.69584981997901</v>
+      </c>
+      <c r="F45">
+        <v>0.8350197839748119</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCKDK</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>-0.00194415353916049</v>
+      </c>
+      <c r="C46">
+        <v>3.36225320445212</v>
+      </c>
+      <c r="D46">
+        <v>0.0021687602454333</v>
+      </c>
+      <c r="E46">
+        <v>0.962878682939298</v>
+      </c>
+      <c r="F46">
+        <v>0.962878682939298</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IL34</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>-0.0285214582786634</v>
+      </c>
+      <c r="C47">
+        <v>2.22847614316493</v>
+      </c>
+      <c r="D47">
+        <v>0.238254900045527</v>
+      </c>
+      <c r="E47">
+        <v>0.681639144942131</v>
+      </c>
+      <c r="F47">
+        <v>0.8346601774801604</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.126786071289442</v>
+      </c>
+      <c r="C48">
+        <v>5.55039612042426</v>
+      </c>
+      <c r="D48">
+        <v>5.91775388764124</v>
+      </c>
+      <c r="E48">
+        <v>0.0154164131925894</v>
+      </c>
+      <c r="F48">
+        <v>0.102776087950596</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PLCG2</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>-0.07786921675396211</v>
+      </c>
+      <c r="C49">
+        <v>4.27592337654138</v>
+      </c>
+      <c r="D49">
+        <v>0.956658470566201</v>
+      </c>
+      <c r="E49">
+        <v>0.328607628748482</v>
+      </c>
+      <c r="F49">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>WDR81</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>-0.0416632308765139</v>
+      </c>
+      <c r="C50">
+        <v>3.53643849336898</v>
+      </c>
+      <c r="D50">
+        <v>0.961579302886569</v>
+      </c>
+      <c r="E50">
+        <v>0.327368222986283</v>
+      </c>
+      <c r="F50">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SCIMP</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0.12050166589794</v>
+      </c>
+      <c r="C51">
+        <v>3.22628105396737</v>
+      </c>
+      <c r="D51">
+        <v>2.56655522703347</v>
+      </c>
+      <c r="E51">
+        <v>0.109916177088636</v>
+      </c>
+      <c r="F51">
+        <v>0.439664708354544</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GRN</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.0172048657690219</v>
+      </c>
+      <c r="C52">
+        <v>4.54951770603221</v>
+      </c>
+      <c r="D52">
+        <v>0.183103675252175</v>
+      </c>
+      <c r="E52">
+        <v>0.668944378544051</v>
+      </c>
+      <c r="F52">
+        <v>0.8346601774801604</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WNT3</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>-0.0807200459911226</v>
+      </c>
+      <c r="C53">
+        <v>2.19576292049074</v>
+      </c>
+      <c r="D53">
+        <v>1.51562530755116</v>
+      </c>
+      <c r="E53">
+        <v>0.218989255600154</v>
+      </c>
+      <c r="F53">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TSPOAP1</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>-0.0763496149071978</v>
+      </c>
+      <c r="C54">
+        <v>6.30636953515217</v>
+      </c>
+      <c r="D54">
+        <v>4.37632362073715</v>
+      </c>
+      <c r="E54">
+        <v>0.0370568075852935</v>
+      </c>
+      <c r="F54">
+        <v>0.1710314196244315</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ABCA7</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.130911139295888</v>
+      </c>
+      <c r="C55">
+        <v>3.64329845122511</v>
+      </c>
+      <c r="D55">
+        <v>3.27581300427084</v>
+      </c>
+      <c r="E55">
+        <v>0.07104098904864239</v>
+      </c>
+      <c r="F55">
+        <v>0.3044613816370388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KLF16</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0.0499441330070094</v>
+      </c>
+      <c r="C56">
+        <v>3.38851139315963</v>
+      </c>
+      <c r="D56">
+        <v>0.966998069752759</v>
+      </c>
+      <c r="E56">
+        <v>0.326010580169144</v>
+      </c>
+      <c r="F56">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>APOE</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>-0.07150088587105791</v>
+      </c>
+      <c r="C57">
+        <v>8.62865625754675</v>
+      </c>
+      <c r="D57">
+        <v>1.33177944439701</v>
+      </c>
+      <c r="E57">
+        <v>0.249161907182703</v>
+      </c>
+      <c r="F57">
+        <v>0.5974684159063308</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RBCK1</t>
+        </is>
+      </c>
       <c r="B58">
-        <v>0.186859305158175</v>
+        <v>-0.0836720032324027</v>
       </c>
       <c r="C58">
-        <v>5.10375233901216</v>
+        <v>5.22332196386061</v>
       </c>
       <c r="D58">
-        <v>5.7496616906268</v>
+        <v>7.96178109748026</v>
       </c>
       <c r="E58">
-        <v>0.517695905964221</v>
+        <v>0.00501015198860809</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.0501015198860809</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SLC2A4RG</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>-0.299786437057885</v>
+      </c>
+      <c r="C59">
+        <v>4.56895758008185</v>
+      </c>
+      <c r="D59">
+        <v>33.9701938886328</v>
+      </c>
+      <c r="E59">
+        <v>1.13500074696538E-08</v>
+      </c>
+      <c r="F59">
+        <v>6.81000448179228E-07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>-0.0035065307058023</v>
+      </c>
+      <c r="C60">
+        <v>7.37801152397378</v>
+      </c>
+      <c r="D60">
+        <v>0.0134302252772131</v>
+      </c>
+      <c r="E60">
+        <v>0.907797437371957</v>
+      </c>
+      <c r="F60">
+        <v>0.9555762498652178</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ADAMTS1</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.152735683115267</v>
+      </c>
+      <c r="C61">
+        <v>2.68541872163912</v>
+      </c>
+      <c r="D61">
+        <v>1.83193731619472</v>
+      </c>
+      <c r="E61">
+        <v>0.176645447637892</v>
+      </c>
+      <c r="F61">
+        <v>0.5888181587929734</v>
       </c>
     </row>
   </sheetData>
